--- a/my-app/regionseng/11/transport and communication/the length of the roads.xlsx
+++ b/my-app/regionseng/11/transport and communication/the length of the roads.xlsx
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Of which:</t>
   </si>
@@ -28,8 +25,11 @@
     <t>Secondary road</t>
   </si>
   <si>
+    <t>*Is under the jurisdiction of the Department of Roads since 2012.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Length of transport ways in Mtskheta-Mtianeti region
+      <t xml:space="preserve">Length of transport ways in Tbilisi
 </t>
     </r>
     <r>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Source: Department of Roads and Municipal Administration</t>
+  </si>
+  <si>
+    <t>Total*</t>
   </si>
   <si>
     <t>local road</t>
@@ -61,7 +64,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +73,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -90,7 +99,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -102,12 +111,12 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -120,23 +129,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
     </font>
     <font>
       <i/>
@@ -160,11 +157,20 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -191,51 +197,54 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -553,285 +562,295 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="66.85546875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4">
         <v>2011</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>2012</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>2013</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>2014</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>2015</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>2016</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>2017</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>2018</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>2019</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>2020</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="4">
         <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1476.6</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1476.6</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1476.6</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1456.6</v>
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>52</v>
+      </c>
+      <c r="D3" s="8">
+        <v>52</v>
+      </c>
+      <c r="E3" s="8">
+        <v>52</v>
       </c>
       <c r="F3" s="8">
-        <v>1514.7</v>
+        <v>52</v>
       </c>
       <c r="G3" s="7">
-        <v>1516.2</v>
+        <v>52</v>
       </c>
       <c r="H3" s="7">
-        <v>1517.2</v>
+        <v>52</v>
       </c>
       <c r="I3" s="7">
-        <v>1517.2</v>
+        <v>52</v>
       </c>
       <c r="J3" s="7">
-        <v>1627.2</v>
+        <v>52</v>
       </c>
       <c r="K3" s="7">
-        <v>1627.2</v>
-      </c>
-      <c r="L3" s="11">
-        <v>2164.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="L3" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="12"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>52</v>
+      </c>
+      <c r="D5" s="8">
+        <v>52</v>
+      </c>
+      <c r="E5" s="8">
+        <v>52</v>
+      </c>
+      <c r="F5" s="8">
+        <v>52</v>
+      </c>
+      <c r="G5" s="7">
+        <v>52</v>
+      </c>
+      <c r="H5" s="7">
+        <v>52</v>
+      </c>
+      <c r="I5" s="7">
+        <v>52</v>
+      </c>
+      <c r="J5" s="7">
+        <v>52</v>
+      </c>
+      <c r="K5" s="7">
+        <v>52</v>
+      </c>
+      <c r="L5" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>172.3</v>
-      </c>
-      <c r="C5" s="6">
-        <v>172.3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>172.3</v>
-      </c>
-      <c r="E5" s="6">
-        <v>178.7</v>
-      </c>
-      <c r="F5" s="9">
-        <v>178.7</v>
-      </c>
-      <c r="G5" s="6">
-        <v>178.7</v>
-      </c>
-      <c r="H5" s="7">
-        <v>179.9</v>
-      </c>
-      <c r="I5" s="7">
-        <v>179.9</v>
-      </c>
-      <c r="J5" s="7">
-        <v>179.9</v>
-      </c>
-      <c r="K5" s="7">
-        <v>179.9</v>
-      </c>
-      <c r="L5" s="11">
-        <v>179.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
-        <v>460.3</v>
-      </c>
-      <c r="C6" s="6">
-        <v>460.3</v>
-      </c>
-      <c r="D6" s="6">
-        <v>460.3</v>
-      </c>
-      <c r="E6" s="6">
-        <v>426.5</v>
-      </c>
-      <c r="F6" s="9">
-        <v>426.5</v>
-      </c>
-      <c r="G6" s="6">
-        <v>426.5</v>
-      </c>
-      <c r="H6" s="7">
-        <v>426.3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>426.3</v>
-      </c>
-      <c r="J6" s="7">
-        <v>426.3</v>
-      </c>
-      <c r="K6" s="7">
-        <v>426.3</v>
-      </c>
-      <c r="L6" s="11">
-        <v>428.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13">
-        <v>844</v>
-      </c>
-      <c r="C7" s="13">
-        <v>844</v>
-      </c>
-      <c r="D7" s="13">
-        <v>844</v>
-      </c>
-      <c r="E7" s="13">
-        <v>851.39999999999986</v>
-      </c>
-      <c r="F7" s="13">
-        <v>909.5</v>
-      </c>
-      <c r="G7" s="13">
-        <v>911</v>
-      </c>
-      <c r="H7" s="13">
-        <v>911</v>
-      </c>
-      <c r="I7" s="13">
-        <v>911</v>
-      </c>
-      <c r="J7" s="13">
-        <v>1021</v>
-      </c>
-      <c r="K7" s="13">
-        <v>1021</v>
-      </c>
-      <c r="L7" s="13">
-        <v>1555.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="A10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="A8:H8"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A9:S9"/>
     <mergeCell ref="A10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>